--- a/data/trans_orig/P20D1_R_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_R_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>3941</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1262</v>
+        <v>1194</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8441</v>
+        <v>8109</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2025326015737669</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06485870024040112</v>
+        <v>0.06136415864982454</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4337239236778633</v>
+        <v>0.4166617709636818</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -762,19 +762,19 @@
         <v>6774</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3941</v>
+        <v>4215</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9655</v>
+        <v>9845</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4471207406439751</v>
+        <v>0.4471207406439752</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2601337449370963</v>
+        <v>0.2782114606549834</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6372701115854505</v>
+        <v>0.6498419802471426</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -783,19 +783,19 @@
         <v>10715</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6417</v>
+        <v>6538</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15917</v>
+        <v>15874</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.309594574178628</v>
+        <v>0.3095945741786278</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1854120228312505</v>
+        <v>0.1889137255978132</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4598917248208535</v>
+        <v>0.4586451205077172</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>15520</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11020</v>
+        <v>11352</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18199</v>
+        <v>18267</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.797467398426233</v>
+        <v>0.7974673984262332</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5662760763221365</v>
+        <v>0.5833382290363179</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9351412997595987</v>
+        <v>0.9386358413501753</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -833,19 +833,19 @@
         <v>8376</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5495</v>
+        <v>5305</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11209</v>
+        <v>10935</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5528792593560249</v>
+        <v>0.5528792593560251</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3627298884145497</v>
+        <v>0.3501580197528562</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7398662550629037</v>
+        <v>0.7217885393450166</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -854,19 +854,19 @@
         <v>23896</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18694</v>
+        <v>18737</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28194</v>
+        <v>28073</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6904054258213721</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5401082751791467</v>
+        <v>0.5413548794922829</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8145879771687493</v>
+        <v>0.8110862744021869</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>4788</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1763</v>
+        <v>1845</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10335</v>
+        <v>10046</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1275117608459064</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04693502573349729</v>
+        <v>0.04912701065158252</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2752159435746003</v>
+        <v>0.2675029082416736</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -979,19 +979,19 @@
         <v>18034</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12368</v>
+        <v>12694</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23045</v>
+        <v>23679</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5592809618035293</v>
+        <v>0.5592809618035294</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3835591933330513</v>
+        <v>0.3936759506310414</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7146894464071812</v>
+        <v>0.7343441255479384</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -1000,19 +1000,19 @@
         <v>22822</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15661</v>
+        <v>15426</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33039</v>
+        <v>32644</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3269774761877961</v>
+        <v>0.3269774761877962</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2243692826860282</v>
+        <v>0.2210070110179686</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4733571124866962</v>
+        <v>0.4676921363833371</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>32765</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>27218</v>
+        <v>27507</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>35790</v>
+        <v>35708</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8724882391540936</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7247840564253996</v>
+        <v>0.7324970917583262</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9530649742665029</v>
+        <v>0.9508729893484175</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>22</v>
@@ -1050,19 +1050,19 @@
         <v>14211</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9200</v>
+        <v>8566</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19877</v>
+        <v>19551</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4407190381964706</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2853105535928189</v>
+        <v>0.2656558744520613</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6164408066669486</v>
+        <v>0.6063240493689586</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>55</v>
@@ -1071,19 +1071,19 @@
         <v>46976</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>36759</v>
+        <v>37154</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>54137</v>
+        <v>54372</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6730225238122037</v>
+        <v>0.6730225238122041</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.526642887513304</v>
+        <v>0.5323078636166633</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7756307173139716</v>
+        <v>0.7789929889820314</v>
       </c>
     </row>
     <row r="9">
@@ -1188,19 +1188,19 @@
         <v>4132</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1722</v>
+        <v>1892</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6859</v>
+        <v>6881</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4425891463103266</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1844804599152092</v>
+        <v>0.2026791617549324</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7346918344129715</v>
+        <v>0.737089733623382</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1209,19 +1209,19 @@
         <v>4132</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1711</v>
+        <v>1704</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8237</v>
+        <v>8756</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2013230108446566</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08337640606683709</v>
+        <v>0.08301628284866477</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4013432021566005</v>
+        <v>0.4266292739854677</v>
       </c>
     </row>
     <row r="11">
@@ -1251,19 +1251,19 @@
         <v>5204</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2477</v>
+        <v>2455</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7614</v>
+        <v>7444</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5574108536896732</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2653081655870285</v>
+        <v>0.2629102663766179</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8155195400847912</v>
+        <v>0.7973208382450677</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>20</v>
@@ -1272,19 +1272,19 @@
         <v>16391</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12286</v>
+        <v>11767</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18812</v>
+        <v>18819</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7986769891553434</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5986567978434</v>
+        <v>0.5733707260145323</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.916623593933163</v>
+        <v>0.9169837171513351</v>
       </c>
     </row>
     <row r="12">
@@ -1376,19 +1376,19 @@
         <v>8730</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4703</v>
+        <v>4722</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15280</v>
+        <v>15650</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1280014271240324</v>
+        <v>0.1280014271240325</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06895801508824635</v>
+        <v>0.06923515605625745</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2240352116699997</v>
+        <v>0.2294678950273249</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -1397,19 +1397,19 @@
         <v>28940</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22537</v>
+        <v>22021</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35862</v>
+        <v>36535</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.5101255806469666</v>
+        <v>0.5101255806469667</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3972600196605647</v>
+        <v>0.3881642846851291</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6321429454081043</v>
+        <v>0.6440099487079418</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>50</v>
@@ -1418,19 +1418,19 @@
         <v>37670</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28432</v>
+        <v>28317</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48844</v>
+        <v>48828</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3015198339992791</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.227580440439845</v>
+        <v>0.2266581015769459</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3909576187927276</v>
+        <v>0.3908325822629715</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>59472</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>52922</v>
+        <v>52552</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>63499</v>
+        <v>63480</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8719985728759676</v>
+        <v>0.8719985728759677</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7759647883300005</v>
+        <v>0.7705321049726749</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9310419849117536</v>
+        <v>0.9307648439437423</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -1468,19 +1468,19 @@
         <v>27791</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20869</v>
+        <v>20196</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34194</v>
+        <v>34710</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4898744193530333</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3678570545918954</v>
+        <v>0.3559900512920581</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6027399803394349</v>
+        <v>0.6118357153148708</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>111</v>
@@ -1489,19 +1489,19 @@
         <v>87263</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>76089</v>
+        <v>76105</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>96501</v>
+        <v>96616</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6984801660007208</v>
+        <v>0.698480166000721</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6090423812072725</v>
+        <v>0.6091674177370284</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.772419559560155</v>
+        <v>0.7733418984230541</v>
       </c>
     </row>
     <row r="15">
